--- a/biology/Médecine/Muscle_obturateur_interne/Muscle_obturateur_interne.xlsx
+++ b/biology/Médecine/Muscle_obturateur_interne/Muscle_obturateur_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur interne est un muscle du membre inférieur.
 Il fait partie des muscles fessiers profonds et des muscles pelvi-trochantériens.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur interne est un muscle aplati reliant l'os coxal au fémur par des fibres convergentes.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur interne se fixe la face pelvienne de l'os coxal, autour du foramen obturé :
 au-dessus du foramen obturé, jusqu'à la ligne arquée de l'ilion,
@@ -579,7 +595,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur interne a un corps musculaire triangulaire à base médiale et antérieure. Ses fibres se dirigent d'abord obliquement en arrière et latéralement, puis se réfléchissent à angle droit, en passant dans le petit foramen ischiatique, appuyé sur la petite incisure ischiatique sur le bord postérieur de l'ischium dont il est séparé par une bourse séreuse : la bourse ischiatique du muscle obturateur interne. Il est ensuite transversal et passe en arrière de l'articulation coxale, pour se terminer par un tendon dirigé latéralement et en avant.
 </t>
@@ -610,7 +628,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon terminal du muscle obturateur interne se termine sur la face médiale du grand trochanter juste sous la terminaison du muscle piriforme, dans la fosse trochantérienne.
 </t>
@@ -641,7 +661,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur interne est innervé par le nerf du muscle obturateur interne qui innerve également le muscle jumeau supérieur, branche collatérale du plexus sacral (issu de L4-L5-S1).
 </t>
@@ -672,7 +694,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle obturateur interne est rotateur latéral de la cuisse par rapport au bassin et abducteur accessoire.
 C'est un muscle rétroverseur du bassin quand la jambe est fixe et un muscle rotateur externe abducteur de la cuisse quand le bassin est fixe.
